--- a/documents/tableau_de_synthèse.xlsx
+++ b/documents/tableau_de_synthèse.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\acnor\OneDrive\Bureau\Objectif Mr Robot\Travaux\Portfolio - le retour\documents\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{189CC5A2-F924-4B9A-8462-7BB7DAC9DEB4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9763BF5B-1827-4862-A51F-B0BCB92059A7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -121,9 +121,6 @@
     <t>Installation et configuration d'un serveur Linux virtualisé avec la gestion des incidents GLPI</t>
   </si>
   <si>
-    <t>Conception et développement du site internet                            E-Ensiegnement avec WordPresse</t>
-  </si>
-  <si>
     <t xml:space="preserve">Refonte d'un jeu d'echec en langage C </t>
   </si>
   <si>
@@ -167,6 +164,9 @@
   </si>
   <si>
     <t>Elaboration d'une veille technologique sur le hacking</t>
+  </si>
+  <si>
+    <t>Conception et développement du site internet E-Ensiegnement avec WordPresse</t>
   </si>
 </sst>
 </file>
@@ -722,9 +722,87 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -740,69 +818,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="27" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -811,21 +826,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="29" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="30" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="31" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="26" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1137,8 +1137,8 @@
   </sheetPr>
   <dimension ref="A1:AQ81"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6:B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.85546875" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -1151,83 +1151,83 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="32" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18" t="s">
+      <c r="B1" s="32"/>
+      <c r="C1" s="32"/>
+      <c r="D1" s="32"/>
+      <c r="E1" s="32"/>
+      <c r="F1" s="32"/>
+      <c r="G1" s="32" t="s">
         <v>22</v>
       </c>
-      <c r="H1" s="18"/>
+      <c r="H1" s="32"/>
     </row>
     <row r="2" spans="1:43" ht="41.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+      <c r="A2" s="32" t="s">
         <v>1</v>
       </c>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
+      <c r="B2" s="32"/>
+      <c r="C2" s="32"/>
+      <c r="D2" s="32"/>
+      <c r="E2" s="32"/>
+      <c r="F2" s="32"/>
+      <c r="G2" s="32"/>
+      <c r="H2" s="32"/>
     </row>
     <row r="3" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A3" s="19" t="s">
-        <v>35</v>
-      </c>
-      <c r="B3" s="20"/>
-      <c r="C3" s="20"/>
-      <c r="D3" s="20"/>
-      <c r="E3" s="21"/>
-      <c r="F3" s="45" t="s">
-        <v>38</v>
-      </c>
-      <c r="G3" s="46"/>
-      <c r="H3" s="47"/>
+      <c r="A3" s="45" t="s">
+        <v>34</v>
+      </c>
+      <c r="B3" s="46"/>
+      <c r="C3" s="46"/>
+      <c r="D3" s="46"/>
+      <c r="E3" s="47"/>
+      <c r="F3" s="50" t="s">
+        <v>37</v>
+      </c>
+      <c r="G3" s="51"/>
+      <c r="H3" s="52"/>
       <c r="K3" s="1"/>
       <c r="L3" s="1"/>
       <c r="M3" s="1"/>
     </row>
     <row r="4" spans="1:43" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A4" s="22" t="s">
+      <c r="A4" s="48" t="s">
+        <v>35</v>
+      </c>
+      <c r="B4" s="49"/>
+      <c r="C4" s="49"/>
+      <c r="D4" s="49"/>
+      <c r="E4" s="49"/>
+      <c r="F4" s="27" t="s">
+        <v>2</v>
+      </c>
+      <c r="G4" s="28" t="s">
+        <v>3</v>
+      </c>
+      <c r="H4" s="29" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="41" t="s">
         <v>36</v>
       </c>
-      <c r="B4" s="23"/>
-      <c r="C4" s="23"/>
-      <c r="D4" s="23"/>
-      <c r="E4" s="23"/>
-      <c r="F4" s="50" t="s">
-        <v>2</v>
-      </c>
-      <c r="G4" s="51" t="s">
-        <v>3</v>
-      </c>
-      <c r="H4" s="52" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="5" spans="1:43" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="28" t="s">
-        <v>37</v>
-      </c>
-      <c r="B5" s="29"/>
-      <c r="C5" s="29"/>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="48"/>
-      <c r="G5" s="48"/>
-      <c r="H5" s="49"/>
+      <c r="B5" s="42"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="42"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="1:43" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="24" t="s">
+      <c r="A6" s="30" t="s">
         <v>5</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="39" t="s">
         <v>6</v>
       </c>
       <c r="C6" s="6" t="s">
@@ -1250,8 +1250,8 @@
       </c>
     </row>
     <row r="7" spans="1:43" s="2" customFormat="1" ht="324.95" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="25"/>
-      <c r="B7" s="30"/>
+      <c r="A7" s="31"/>
+      <c r="B7" s="40"/>
       <c r="C7" s="10" t="s">
         <v>13</v>
       </c>
@@ -1307,16 +1307,16 @@
       <c r="AQ7"/>
     </row>
     <row r="8" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A8" s="31" t="s">
+      <c r="A8" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="32"/>
-      <c r="C8" s="32"/>
-      <c r="D8" s="32"/>
-      <c r="E8" s="32"/>
-      <c r="F8" s="32"/>
-      <c r="G8" s="32"/>
-      <c r="H8" s="33"/>
+      <c r="B8" s="34"/>
+      <c r="C8" s="34"/>
+      <c r="D8" s="34"/>
+      <c r="E8" s="34"/>
+      <c r="F8" s="34"/>
+      <c r="G8" s="34"/>
+      <c r="H8" s="35"/>
       <c r="I8"/>
       <c r="J8"/>
       <c r="K8"/>
@@ -1354,18 +1354,18 @@
       <c r="AQ8"/>
     </row>
     <row r="9" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="34" t="s">
+      <c r="A9" s="18" t="s">
         <v>23</v>
       </c>
       <c r="B9" s="12" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C9" s="16"/>
       <c r="D9" s="17"/>
       <c r="E9" s="9"/>
       <c r="F9" s="17"/>
       <c r="G9" s="17"/>
-      <c r="H9" s="35"/>
+      <c r="H9" s="19"/>
       <c r="I9"/>
       <c r="J9"/>
       <c r="K9"/>
@@ -1403,18 +1403,18 @@
       <c r="AQ9"/>
     </row>
     <row r="10" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="34" t="s">
-        <v>24</v>
+      <c r="A10" s="18" t="s">
+        <v>39</v>
       </c>
       <c r="B10" s="13" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="C10" s="17"/>
       <c r="D10" s="9"/>
       <c r="E10" s="17"/>
       <c r="F10" s="17"/>
       <c r="G10" s="17"/>
-      <c r="H10" s="35"/>
+      <c r="H10" s="19"/>
       <c r="I10"/>
       <c r="J10"/>
       <c r="K10"/>
@@ -1452,18 +1452,18 @@
       <c r="AQ10"/>
     </row>
     <row r="11" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="34" t="s">
-        <v>25</v>
+      <c r="A11" s="18" t="s">
+        <v>24</v>
       </c>
       <c r="B11" s="14" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C11" s="9"/>
       <c r="D11" s="9"/>
       <c r="E11" s="9"/>
       <c r="F11" s="17"/>
       <c r="G11" s="17"/>
-      <c r="H11" s="35"/>
+      <c r="H11" s="19"/>
       <c r="I11"/>
       <c r="J11"/>
       <c r="K11"/>
@@ -1501,18 +1501,18 @@
       <c r="AQ11"/>
     </row>
     <row r="12" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="34" t="s">
-        <v>39</v>
+      <c r="A12" s="18" t="s">
+        <v>38</v>
       </c>
       <c r="B12" s="12" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C12" s="9"/>
       <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="36"/>
+      <c r="H12" s="20"/>
       <c r="I12"/>
       <c r="J12"/>
       <c r="K12"/>
@@ -1550,18 +1550,18 @@
       <c r="AQ12"/>
     </row>
     <row r="13" spans="1:43" s="2" customFormat="1" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="34" t="s">
-        <v>31</v>
+      <c r="A13" s="18" t="s">
+        <v>30</v>
       </c>
       <c r="B13" s="15" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C13" s="17"/>
       <c r="D13" s="9"/>
       <c r="E13" s="17"/>
       <c r="F13" s="17"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="35"/>
+      <c r="H13" s="19"/>
       <c r="I13"/>
       <c r="J13"/>
       <c r="K13"/>
@@ -1599,18 +1599,18 @@
       <c r="AQ13"/>
     </row>
     <row r="14" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="34" t="s">
-        <v>30</v>
+      <c r="A14" s="18" t="s">
+        <v>29</v>
       </c>
       <c r="B14" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C14" s="9"/>
       <c r="D14" s="9"/>
       <c r="E14" s="17"/>
       <c r="F14" s="17"/>
       <c r="G14" s="9"/>
-      <c r="H14" s="35"/>
+      <c r="H14" s="19"/>
       <c r="I14"/>
       <c r="J14"/>
       <c r="K14"/>
@@ -1648,18 +1648,18 @@
       <c r="AQ14"/>
     </row>
     <row r="15" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="34" t="s">
+      <c r="A15" s="18" t="s">
+        <v>25</v>
+      </c>
+      <c r="B15" s="15" t="s">
         <v>26</v>
-      </c>
-      <c r="B15" s="15" t="s">
-        <v>27</v>
       </c>
       <c r="C15" s="9"/>
       <c r="D15" s="9"/>
       <c r="E15" s="17"/>
       <c r="F15" s="9"/>
       <c r="G15" s="9"/>
-      <c r="H15" s="35"/>
+      <c r="H15" s="19"/>
       <c r="I15"/>
       <c r="J15"/>
       <c r="K15"/>
@@ -1697,14 +1697,14 @@
       <c r="AQ15"/>
     </row>
     <row r="16" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="34"/>
+      <c r="A16" s="18"/>
       <c r="B16" s="15"/>
       <c r="C16" s="9"/>
       <c r="D16" s="9"/>
       <c r="E16" s="9"/>
       <c r="F16" s="9"/>
       <c r="G16" s="9"/>
-      <c r="H16" s="35"/>
+      <c r="H16" s="19"/>
       <c r="I16"/>
       <c r="J16"/>
       <c r="K16"/>
@@ -1742,14 +1742,14 @@
       <c r="AQ16"/>
     </row>
     <row r="17" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="34"/>
+      <c r="A17" s="18"/>
       <c r="B17" s="15"/>
       <c r="C17" s="9"/>
       <c r="D17" s="9"/>
       <c r="E17" s="9"/>
       <c r="F17" s="9"/>
       <c r="G17" s="9"/>
-      <c r="H17" s="35"/>
+      <c r="H17" s="19"/>
       <c r="I17"/>
       <c r="J17"/>
       <c r="K17"/>
@@ -1787,14 +1787,14 @@
       <c r="AQ17"/>
     </row>
     <row r="18" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="34"/>
+      <c r="A18" s="18"/>
       <c r="B18" s="15"/>
       <c r="C18" s="9"/>
       <c r="D18" s="9"/>
       <c r="E18" s="9"/>
       <c r="F18" s="9"/>
       <c r="G18" s="9"/>
-      <c r="H18" s="35"/>
+      <c r="H18" s="19"/>
       <c r="I18"/>
       <c r="J18"/>
       <c r="K18"/>
@@ -1832,15 +1832,15 @@
       <c r="AQ18"/>
     </row>
     <row r="19" spans="1:43" s="2" customFormat="1" ht="18" x14ac:dyDescent="0.2">
-      <c r="A19" s="37" t="s">
+      <c r="A19" s="36" t="s">
         <v>20</v>
       </c>
-      <c r="B19" s="26"/>
-      <c r="C19" s="26"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
       <c r="H19" s="38"/>
       <c r="I19"/>
       <c r="J19"/>
@@ -1879,14 +1879,14 @@
       <c r="AQ19"/>
     </row>
     <row r="20" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="34"/>
+      <c r="A20" s="18"/>
       <c r="B20" s="8"/>
       <c r="C20" s="9"/>
       <c r="D20" s="9"/>
       <c r="E20" s="9"/>
       <c r="F20" s="9"/>
       <c r="G20" s="9"/>
-      <c r="H20" s="35"/>
+      <c r="H20" s="19"/>
       <c r="I20"/>
       <c r="J20"/>
       <c r="K20"/>
@@ -1924,14 +1924,14 @@
       <c r="AQ20"/>
     </row>
     <row r="21" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="34"/>
+      <c r="A21" s="18"/>
       <c r="B21" s="8"/>
       <c r="C21" s="9"/>
       <c r="D21" s="9"/>
       <c r="E21" s="9"/>
       <c r="F21" s="9"/>
       <c r="G21" s="9"/>
-      <c r="H21" s="35"/>
+      <c r="H21" s="19"/>
       <c r="I21"/>
       <c r="J21"/>
       <c r="K21"/>
@@ -1969,15 +1969,15 @@
       <c r="AQ21"/>
     </row>
     <row r="22" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="37" t="s">
+      <c r="A22" s="36" t="s">
         <v>21</v>
       </c>
-      <c r="B22" s="26"/>
-      <c r="C22" s="26"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
+      <c r="B22" s="37"/>
+      <c r="C22" s="37"/>
+      <c r="D22" s="37"/>
+      <c r="E22" s="37"/>
+      <c r="F22" s="37"/>
+      <c r="G22" s="37"/>
       <c r="H22" s="38"/>
       <c r="I22"/>
       <c r="J22"/>
@@ -2016,18 +2016,18 @@
       <c r="AQ22"/>
     </row>
     <row r="23" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="39" t="s">
-        <v>32</v>
+      <c r="A23" s="21" t="s">
+        <v>31</v>
       </c>
       <c r="B23" s="15" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="C23" s="17"/>
       <c r="D23" s="9"/>
       <c r="E23" s="17"/>
       <c r="F23" s="17"/>
       <c r="G23" s="9"/>
-      <c r="H23" s="35"/>
+      <c r="H23" s="19"/>
       <c r="I23"/>
       <c r="J23"/>
       <c r="K23"/>
@@ -2065,18 +2065,18 @@
       <c r="AQ23"/>
     </row>
     <row r="24" spans="1:43" s="2" customFormat="1" ht="39.950000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="40" t="s">
+      <c r="A24" s="22" t="s">
+        <v>32</v>
+      </c>
+      <c r="B24" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B24" s="41" t="s">
-        <v>34</v>
-      </c>
-      <c r="C24" s="42"/>
-      <c r="D24" s="42"/>
-      <c r="E24" s="42"/>
-      <c r="F24" s="42"/>
-      <c r="G24" s="43"/>
-      <c r="H24" s="44"/>
+      <c r="C24" s="24"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="26"/>
       <c r="I24"/>
       <c r="J24"/>
       <c r="K24"/>
@@ -2729,6 +2729,11 @@
     </row>
   </sheetData>
   <mergeCells count="12">
+    <mergeCell ref="G1:H1"/>
+    <mergeCell ref="A1:F1"/>
+    <mergeCell ref="A3:E3"/>
+    <mergeCell ref="A4:E4"/>
+    <mergeCell ref="F3:H3"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A2:H2"/>
     <mergeCell ref="A8:H8"/>
@@ -2736,21 +2741,25 @@
     <mergeCell ref="A22:H22"/>
     <mergeCell ref="B6:B7"/>
     <mergeCell ref="A5:H5"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="A1:F1"/>
-    <mergeCell ref="A3:E3"/>
-    <mergeCell ref="A4:E4"/>
-    <mergeCell ref="F3:H3"/>
   </mergeCells>
   <phoneticPr fontId="2" type="noConversion"/>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.51181102362204722" footer="0.51181102362204722"/>
-  <pageSetup paperSize="9" scale="48" orientation="portrait" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="49" orientation="portrait" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
   <documentManagement>
     <lcf76f155ced4ddcb4097134ff3c332f xmlns="191d0fcf-6d89-4c90-807a-10f37b8d7a4c">
@@ -2759,15 +2768,6 @@
     <TaxCatchAll xmlns="9a7dc87b-2be1-4fee-871a-355a79ca984c" xsi:nil="true"/>
   </documentManagement>
 </p:properties>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
 </file>
 
 <file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2966,20 +2966,26 @@
 </file>
 
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CCF3B-7B88-440F-8A0A-FBED7FBF06E5}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240DE218-FED0-48EE-B696-C7623217CB73}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="191d0fcf-6d89-4c90-807a-10f37b8d7a4c"/>
-    <ds:schemaRef ds:uri="9a7dc87b-2be1-4fee-871a-355a79ca984c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{240DE218-FED0-48EE-B696-C7623217CB73}">
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{3A3CCF3B-7B88-440F-8A0A-FBED7FBF06E5}">
   <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
+    <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="9a7dc87b-2be1-4fee-871a-355a79ca984c"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
+    <ds:schemaRef ds:uri="191d0fcf-6d89-4c90-807a-10f37b8d7a4c"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
